--- a/ApiTest/Login.xlsx
+++ b/ApiTest/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
